--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1061831700638038</v>
+        <v>0.107752559661544</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2946562535026501</v>
+        <v>0.2818583099714331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2328860294127847</v>
+        <v>0.2351055734272126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2746022297563008</v>
+        <v>0.2804160992275734</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1678346155453464</v>
+        <v>0.1628803199431361</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3300796292433781</v>
+        <v>0.3261120221794568</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3116901048847173</v>
+        <v>0.3111997878841664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3428624760228878</v>
+        <v>0.3367889074044239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1464308091387838</v>
+        <v>0.1459377031025121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3260119331356655</v>
+        <v>0.3258393592712744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.284149647568799</v>
+        <v>0.2861192090443123</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.32439455566947</v>
+        <v>0.3240306366266378</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1885048274061049</v>
+        <v>0.1860752854051966</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4100331678355563</v>
+        <v>0.4042353820450178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3412773311084475</v>
+        <v>0.3468855093648283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.387899192487066</v>
+        <v>0.3920213614267446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2755558676204953</v>
+        <v>0.2670433436144181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4551186790913108</v>
+        <v>0.446545840172167</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4246483064718619</v>
+        <v>0.4221003191541304</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4336455281833462</v>
+        <v>0.43304815815052</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2135718185941309</v>
+        <v>0.2143617992319927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4088594732407449</v>
+        <v>0.4056339154102573</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3617169241555364</v>
+        <v>0.3644903784159971</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3974982430004344</v>
+        <v>0.3913479235711378</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1227890406480907</v>
+        <v>0.1219357162401674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2156337297981812</v>
+        <v>0.2221047019101278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1377339386724345</v>
+        <v>0.1367170789959312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1151858446301866</v>
+        <v>0.1157350963634505</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2109204307759338</v>
+        <v>0.2150468115038339</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3320407020100755</v>
+        <v>0.3354239798230904</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1746941016929162</v>
+        <v>0.1780610335996647</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1688985416782126</v>
+        <v>0.1686014094153288</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1794406124529262</v>
+        <v>0.1809841605641221</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2910047366718369</v>
+        <v>0.2927139542775133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1636460145693563</v>
+        <v>0.1634805188101999</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.153467038967655</v>
+        <v>0.1539937721758506</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1928132494604097</v>
+        <v>0.1884677796812231</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3017062904369233</v>
+        <v>0.3046797010477614</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2015780689960609</v>
+        <v>0.2037595076047119</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.188797608375927</v>
+        <v>0.1943881295054882</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2907497837591064</v>
+        <v>0.2923578079697666</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4222679504063054</v>
+        <v>0.4296279234114672</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2482392202056204</v>
+        <v>0.2471775010387841</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2303999409472158</v>
+        <v>0.2309996250108207</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2311294892007124</v>
+        <v>0.2308432182663694</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3526945293350479</v>
+        <v>0.3527483472548432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2140214510415264</v>
+        <v>0.2131822172389305</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2022773527768923</v>
+        <v>0.2052466096769275</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1726823041251805</v>
+        <v>0.1717428190737139</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1914733006136023</v>
+        <v>0.190099540042634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08574942003964417</v>
+        <v>0.08537136000849348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1908038664743198</v>
+        <v>0.1958001100895274</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2131415144682024</v>
+        <v>0.2106079129717041</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2321970063366688</v>
+        <v>0.2380374789797035</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1092964334091684</v>
+        <v>0.1097805990545627</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2776288881034867</v>
+        <v>0.2818713573501498</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2024111284299462</v>
+        <v>0.2039583659650071</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.226739546848576</v>
+        <v>0.2267541595508129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1073126535433218</v>
+        <v>0.1057965872769095</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2520536590694754</v>
+        <v>0.2506450287550026</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2685417093575955</v>
+        <v>0.2648945753282025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2903175400428036</v>
+        <v>0.2857636052979408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1559666376556997</v>
+        <v>0.158022730705928</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2853490813560101</v>
+        <v>0.2857464797184355</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3038440230705803</v>
+        <v>0.3050281463458367</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3364643859448318</v>
+        <v>0.3357358834470561</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1842168995465634</v>
+        <v>0.1811940074594035</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3655300629224846</v>
+        <v>0.3674970155901661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2749471327874986</v>
+        <v>0.268862362983066</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2932769365057449</v>
+        <v>0.2974625875870674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1595183430767499</v>
+        <v>0.1567619806777375</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3139623953438254</v>
+        <v>0.3155710095557828</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2652721807648171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2427562260034383</v>
+        <v>0.2427562260034384</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2793305931623062</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1665037745597089</v>
+        <v>0.1653945654807335</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1740334735771431</v>
+        <v>0.1751119302775486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2195651442515368</v>
+        <v>0.2237568933940659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1812778317294311</v>
+        <v>0.1872770233077578</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2362974424917557</v>
+        <v>0.2353790589034218</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2269808083215606</v>
+        <v>0.2182609233188369</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2732888008453608</v>
+        <v>0.2743439544469513</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2084128051649737</v>
+        <v>0.2130849861121743</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2139103249309039</v>
+        <v>0.2108703681664592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2104441493065082</v>
+        <v>0.212846361592221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2578748797015553</v>
+        <v>0.2614936790581361</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2147945506210857</v>
+        <v>0.2142073109171432</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2524627437781677</v>
+        <v>0.2554582883511952</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2643901410834039</v>
+        <v>0.270770468501388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3121653670945966</v>
+        <v>0.3182707760799179</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3048817993641978</v>
+        <v>0.3011357673546695</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3260167731515285</v>
+        <v>0.3290210152301226</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3177105003116128</v>
+        <v>0.3145594659982207</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3734358608632349</v>
+        <v>0.3795726589476727</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.296176320722993</v>
+        <v>0.301077716787131</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2769406748809065</v>
+        <v>0.2744426107181905</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2743588497040444</v>
+        <v>0.2765567158760465</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3288960848293226</v>
+        <v>0.3317766419262042</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2871156784242084</v>
+        <v>0.2844049245745291</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1261236319557225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09140623566349804</v>
+        <v>0.09140623566349801</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2024423325966683</v>
@@ -1229,7 +1229,7 @@
         <v>0.1402442275416679</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04842994109721428</v>
+        <v>0.04842994109721427</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1869036820388051</v>
@@ -1241,7 +1241,7 @@
         <v>0.13332879230671</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06884834690343467</v>
+        <v>0.06884834690343465</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1226607649011767</v>
+        <v>0.1224593450845904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1262967624871807</v>
+        <v>0.1256800500794293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08747217327070916</v>
+        <v>0.08716397310101813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05972806670268782</v>
+        <v>0.0612247682593999</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1507857002472826</v>
+        <v>0.1516610185499777</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2923525512516247</v>
+        <v>0.2953684409462696</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09332532019091874</v>
+        <v>0.1007089134369594</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03075564588465674</v>
+        <v>0.03186679412865743</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1472159968307916</v>
+        <v>0.1516183078643249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2261058673590916</v>
+        <v>0.2264747209112006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.103697650910904</v>
+        <v>0.1041152193807848</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04971512236002051</v>
+        <v>0.0511806597827133</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2248544621826214</v>
+        <v>0.2301427477395159</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2308679068635622</v>
+        <v>0.2291601742651646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1796538948714691</v>
+        <v>0.1794522453389833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1420828706511404</v>
+        <v>0.13773629836949</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2639300805702368</v>
+        <v>0.2646512722338533</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4258030198007908</v>
+        <v>0.4295194111737801</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1874339859144751</v>
+        <v>0.1909335991003897</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07003571700876168</v>
+        <v>0.07167482997211187</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2263048326423833</v>
+        <v>0.2244987085703951</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3159393056485665</v>
+        <v>0.3115617078489137</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1677362979844035</v>
+        <v>0.1698610581826333</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09087868339859462</v>
+        <v>0.09263768585191305</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.279641952806485</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2927978983120903</v>
+        <v>0.2927978983120901</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2662955644133594</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1695891286080424</v>
+        <v>0.1680927719650319</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1839635746503953</v>
+        <v>0.1872679214419594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1727033583955481</v>
+        <v>0.1750359718483319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2074142892095496</v>
+        <v>0.208289260480815</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2570330483240025</v>
+        <v>0.2655838035781229</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.287553086469391</v>
+        <v>0.2932425171170661</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2265512881528815</v>
+        <v>0.2270881657822495</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2527321309324249</v>
+        <v>0.250534333818443</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2284072175680272</v>
+        <v>0.2317599239158138</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2518950504424908</v>
+        <v>0.2520342967588364</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2138282725967283</v>
+        <v>0.2143469668386165</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2388972483892295</v>
+        <v>0.2400920805207913</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2743149891035174</v>
+        <v>0.2676819193409214</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2859198650106274</v>
+        <v>0.2867894429113798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2734781601135396</v>
+        <v>0.2781913638940867</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2976541579534511</v>
+        <v>0.3020981952674867</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3695270477216634</v>
+        <v>0.3719802861355952</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4013336404085717</v>
+        <v>0.4037279252643511</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3373544871797201</v>
+        <v>0.333814252182672</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3389389153269604</v>
+        <v>0.3356629812305677</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3041223059920506</v>
+        <v>0.3063076048423745</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3286924276515326</v>
+        <v>0.3310211241392907</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2920220464723956</v>
+        <v>0.2884946659616163</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3037574389447429</v>
+        <v>0.3037900498521259</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.149817757743141</v>
+        <v>0.1494772809216826</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1898998543589812</v>
+        <v>0.1896048031961962</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08915019453092717</v>
+        <v>0.0908804089334712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2305691481009731</v>
+        <v>0.2301291943343279</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2287599720479259</v>
+        <v>0.2305312509859276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2363533596222838</v>
+        <v>0.2348138799255082</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1510184457370127</v>
+        <v>0.1523230857196922</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3146144802720096</v>
+        <v>0.3096662008986181</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1980797507694363</v>
+        <v>0.1996773602882395</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2216603472441832</v>
+        <v>0.222012939276724</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1292839240821835</v>
+        <v>0.1282450258468836</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2820780165026894</v>
+        <v>0.2831757384540404</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.214082787312062</v>
+        <v>0.2152935149954025</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2538739326481065</v>
+        <v>0.2569218073073062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1430528571911434</v>
+        <v>0.1454267735046589</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3095448395524577</v>
+        <v>0.3094258489254162</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2969378995330547</v>
+        <v>0.302457084813449</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3072358695106701</v>
+        <v>0.3048836725209722</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2130179009900425</v>
+        <v>0.2144340310759951</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3789238339245373</v>
+        <v>0.378923812992784</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2459413150135275</v>
+        <v>0.2464128231830466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2702377730521803</v>
+        <v>0.2686945578315229</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1692952506663201</v>
+        <v>0.1683888681300475</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3343160766616412</v>
+        <v>0.3338253646655182</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1081704270888159</v>
+        <v>0.1106408840980062</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06833137344179518</v>
+        <v>0.06856469391822126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1084842554661164</v>
+        <v>0.1077996842762166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1041375132474195</v>
+        <v>0.1070607005216521</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1649617609309766</v>
+        <v>0.1692049907110872</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1065918902674729</v>
+        <v>0.1067958982750547</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1477095198325152</v>
+        <v>0.1466166946037931</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1333534355752832</v>
+        <v>0.1338219023806724</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.146161555025074</v>
+        <v>0.1449968302087244</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09374866627547225</v>
+        <v>0.0927441573366987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1365389946579364</v>
+        <v>0.1348072766532119</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1260448039144346</v>
+        <v>0.1275942739682688</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1578436259591044</v>
+        <v>0.1589429493592469</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1134689911874622</v>
+        <v>0.1154125518017441</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1571764090322675</v>
+        <v>0.1563986382278233</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.154581826057041</v>
+        <v>0.1556576864067742</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2240296701074544</v>
+        <v>0.2236873659363376</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1539564090048491</v>
+        <v>0.1566989732332764</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2031047943336019</v>
+        <v>0.2015387548672927</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1792244650003677</v>
+        <v>0.1803550911915502</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1846067736478283</v>
+        <v>0.1845158745662173</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1281869577485158</v>
+        <v>0.1266292503399885</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1735650285994676</v>
+        <v>0.1727086732578479</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1604744790596705</v>
+        <v>0.1614536878182962</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28989</v>
+        <v>29418</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86632</v>
+        <v>82869</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>68413</v>
+        <v>69065</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>87556</v>
+        <v>89409</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43778</v>
+        <v>42485</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>94425</v>
+        <v>93290</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>89419</v>
+        <v>89278</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>108365</v>
+        <v>106446</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>78172</v>
+        <v>77909</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>189112</v>
+        <v>189012</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>164990</v>
+        <v>166134</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>205960</v>
+        <v>205729</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51464</v>
+        <v>50800</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120554</v>
+        <v>118850</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>100254</v>
+        <v>101901</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>123680</v>
+        <v>124994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>71875</v>
+        <v>69655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130194</v>
+        <v>127742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>121825</v>
+        <v>121094</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>137058</v>
+        <v>136870</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>114015</v>
+        <v>114437</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>237170</v>
+        <v>235299</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>210029</v>
+        <v>211640</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>252374</v>
+        <v>248469</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>60544</v>
+        <v>60123</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>109009</v>
+        <v>112280</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69222</v>
+        <v>68711</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61123</v>
+        <v>61414</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>106293</v>
+        <v>108373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>173911</v>
+        <v>175683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>91380</v>
+        <v>93141</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>92155</v>
+        <v>91993</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>178907</v>
+        <v>180446</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>299529</v>
+        <v>301288</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>167845</v>
+        <v>167675</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>165172</v>
+        <v>165739</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>95071</v>
+        <v>92929</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>152521</v>
+        <v>154024</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101308</v>
+        <v>102404</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100185</v>
+        <v>103151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>146523</v>
+        <v>147333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>221169</v>
+        <v>225024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>129850</v>
+        <v>129295</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125711</v>
+        <v>126038</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>230442</v>
+        <v>230156</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>363026</v>
+        <v>363081</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>219513</v>
+        <v>218652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>217705</v>
+        <v>220901</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55059</v>
+        <v>54760</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>62046</v>
+        <v>61601</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26849</v>
+        <v>26731</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60293</v>
+        <v>61871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>71490</v>
+        <v>70640</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79184</v>
+        <v>81176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36484</v>
+        <v>36646</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>98791</v>
+        <v>100300</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132429</v>
+        <v>133441</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>150797</v>
+        <v>150806</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69423</v>
+        <v>68442</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>169337</v>
+        <v>168391</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>85623</v>
+        <v>84461</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94076</v>
+        <v>92601</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48835</v>
+        <v>49479</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>90168</v>
+        <v>90294</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>101913</v>
+        <v>102310</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>114741</v>
+        <v>114493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61493</v>
+        <v>60484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>130069</v>
+        <v>130769</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>179886</v>
+        <v>175905</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>195049</v>
+        <v>197832</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103196</v>
+        <v>101413</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>210929</v>
+        <v>212010</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59720</v>
+        <v>59322</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65085</v>
+        <v>65489</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>80582</v>
+        <v>82120</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>67286</v>
+        <v>69513</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>87774</v>
+        <v>87433</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88067</v>
+        <v>84683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>105840</v>
+        <v>106249</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>87942</v>
+        <v>89914</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>156182</v>
+        <v>153962</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>160353</v>
+        <v>162183</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>194512</v>
+        <v>197242</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>170361</v>
+        <v>169896</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90551</v>
+        <v>91625</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98877</v>
+        <v>101263</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>114567</v>
+        <v>116807</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>113165</v>
+        <v>111774</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>121101</v>
+        <v>122217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>123269</v>
+        <v>122047</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>144625</v>
+        <v>147002</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124975</v>
+        <v>127043</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>202202</v>
+        <v>200378</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>209054</v>
+        <v>210729</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>248083</v>
+        <v>250255</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>227722</v>
+        <v>225572</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24938</v>
+        <v>24897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26853</v>
+        <v>26722</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18279</v>
+        <v>18214</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12284</v>
+        <v>12592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31313</v>
+        <v>31495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>64198</v>
+        <v>64860</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20319</v>
+        <v>21926</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6988</v>
+        <v>7241</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>60502</v>
+        <v>62311</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>97725</v>
+        <v>97884</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44246</v>
+        <v>44424</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21521</v>
+        <v>22155</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>45715</v>
+        <v>46790</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49087</v>
+        <v>48724</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37541</v>
+        <v>37499</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29221</v>
+        <v>28328</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>54810</v>
+        <v>54960</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>93503</v>
+        <v>94319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>40808</v>
+        <v>41570</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15913</v>
+        <v>16286</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>93006</v>
+        <v>92264</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>136552</v>
+        <v>134660</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>71570</v>
+        <v>72477</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>39339</v>
+        <v>40101</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45927</v>
+        <v>45521</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>50403</v>
+        <v>51308</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45442</v>
+        <v>46056</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>56148</v>
+        <v>56385</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>71250</v>
+        <v>73621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>80524</v>
+        <v>82117</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>61875</v>
+        <v>62021</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>66658</v>
+        <v>66078</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>125170</v>
+        <v>127008</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>139553</v>
+        <v>139630</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>114663</v>
+        <v>114941</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>127680</v>
+        <v>128319</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>74288</v>
+        <v>72491</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>78337</v>
+        <v>78575</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71958</v>
+        <v>73199</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>80577</v>
+        <v>81780</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>102434</v>
+        <v>103114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>112386</v>
+        <v>113056</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>92137</v>
+        <v>91170</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>89395</v>
+        <v>88531</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>166663</v>
+        <v>167861</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>182100</v>
+        <v>183390</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>156593</v>
+        <v>154702</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>162345</v>
+        <v>162363</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>92009</v>
+        <v>91800</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>125863</v>
+        <v>125668</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>58532</v>
+        <v>59668</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>165938</v>
+        <v>165621</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>145999</v>
+        <v>147129</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>163994</v>
+        <v>162926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>104206</v>
+        <v>105106</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>241531</v>
+        <v>237732</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>248067</v>
+        <v>250068</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>300714</v>
+        <v>301192</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>174091</v>
+        <v>172692</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>419560</v>
+        <v>421193</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>131477</v>
+        <v>132221</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>168265</v>
+        <v>170285</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>93922</v>
+        <v>95481</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>222775</v>
+        <v>222690</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>189511</v>
+        <v>193034</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>213177</v>
+        <v>211544</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>146987</v>
+        <v>147964</v>
       </c>
       <c r="J31" s="6" t="n">
         <v>290901</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>308007</v>
+        <v>308598</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>366616</v>
+        <v>364522</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>227970</v>
+        <v>226749</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>497259</v>
+        <v>496529</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>80457</v>
+        <v>82294</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53103</v>
+        <v>53285</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>84464</v>
+        <v>83931</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>83109</v>
+        <v>85442</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>129249</v>
+        <v>132574</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>87713</v>
+        <v>87881</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>122033</v>
+        <v>121130</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>110685</v>
+        <v>111074</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>223233</v>
+        <v>221455</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>150000</v>
+        <v>148393</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>219111</v>
+        <v>216332</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>205212</v>
+        <v>207735</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>117403</v>
+        <v>118221</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>88182</v>
+        <v>89692</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>122375</v>
+        <v>121769</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>123367</v>
+        <v>124226</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>175530</v>
+        <v>175262</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>126688</v>
+        <v>128945</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>167798</v>
+        <v>166505</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>148759</v>
+        <v>149698</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>281951</v>
+        <v>281812</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>205103</v>
+        <v>202610</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>278528</v>
+        <v>277154</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>261267</v>
+        <v>262861</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
     </row>
     <row r="40">
